--- a/task1.xlsx
+++ b/task1.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20394"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Crown Tech\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\4846\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B79F05F-163C-43C1-8D6D-CEA38CC78AB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A1A0C5E-A29C-4B21-B205-AD311DE5170B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Variables" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
+    <sheet name="Equilance Classes" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="110">
   <si>
     <t>Variables</t>
   </si>
@@ -84,17 +84,287 @@
     <t>Card N0</t>
   </si>
   <si>
-    <t>5311-1919-1213-3221</t>
-  </si>
-  <si>
     <t xml:space="preserve">          Invalid</t>
+  </si>
+  <si>
+    <t>Format:xxxx</t>
+  </si>
+  <si>
+    <t>Format:xxxx-xxxx-xxxx-xxxx</t>
+  </si>
+  <si>
+    <t>where x is integer</t>
+  </si>
+  <si>
+    <t>Copy paste</t>
+  </si>
+  <si>
+    <t>Aotomated slashes should be entered manually</t>
+  </si>
+  <si>
+    <t>xxx-xxxx-xxxx</t>
+  </si>
+  <si>
+    <t>xxxx-xxxx-xxx</t>
+  </si>
+  <si>
+    <t>Expirey Date</t>
+  </si>
+  <si>
+    <t>Enter the expirey date in allowed format</t>
+  </si>
+  <si>
+    <t>Format:xxx</t>
+  </si>
+  <si>
+    <t>x can not be alphabets and special characters</t>
+  </si>
+  <si>
+    <t>Enter alphanumeric values</t>
+  </si>
+  <si>
+    <t>Enter negative and greater than thousand values</t>
+  </si>
+  <si>
+    <t>enter alphanumeric values</t>
+  </si>
+  <si>
+    <t>enter special characters</t>
+  </si>
+  <si>
+    <t>Format:5321-3211-1111-2222</t>
+  </si>
+  <si>
+    <t>x can not be alphabets</t>
+  </si>
+  <si>
+    <t>x can not be alphanameric</t>
+  </si>
+  <si>
+    <t>x can not be null</t>
+  </si>
+  <si>
+    <t>Format:wwww-abcd-efgh-xyzx</t>
+  </si>
+  <si>
+    <t>Format:1234-xasd-azby-2222</t>
+  </si>
+  <si>
+    <t>0000-0000-0000-0000</t>
+  </si>
+  <si>
+    <t>543-2233-4556</t>
+  </si>
+  <si>
+    <t>5432-3214-123</t>
+  </si>
+  <si>
+    <t>Format:099</t>
+  </si>
+  <si>
+    <t>Copy paste the value</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>2ac</t>
+  </si>
+  <si>
+    <t>Boundry Values</t>
+  </si>
+  <si>
+    <t>Invalid</t>
+  </si>
+  <si>
+    <t>Format:MM/YY</t>
+  </si>
+  <si>
+    <t>0&lt;x&lt;16</t>
+  </si>
+  <si>
+    <t>Format:YY/MM</t>
+  </si>
+  <si>
+    <t>x is integer between 0-9</t>
+  </si>
+  <si>
+    <t>Space is allowed</t>
+  </si>
+  <si>
+    <t>Card holder (first name + second name)</t>
+  </si>
+  <si>
+    <t>Format:First Name  second name</t>
+  </si>
+  <si>
+    <t>Character length is from 1 to 30</t>
+  </si>
+  <si>
+    <t>Format:Second name First name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter integers </t>
+  </si>
+  <si>
+    <t>enter null value</t>
+  </si>
+  <si>
+    <t>enter character greater than 30</t>
+  </si>
+  <si>
+    <t>Format:02/25</t>
+  </si>
+  <si>
+    <t>Format:25/06</t>
+  </si>
+  <si>
+    <t>Format:YY/M</t>
+  </si>
+  <si>
+    <t>MM is integer from 1 to 12</t>
+  </si>
+  <si>
+    <t>Format:20/11</t>
+  </si>
+  <si>
+    <t>Enter MM greater than 12 or null</t>
+  </si>
+  <si>
+    <t>YY is integer from 20 to 30</t>
+  </si>
+  <si>
+    <t>Enter YY greater than 30 or less than 20</t>
+  </si>
+  <si>
+    <t>Format:19/12</t>
+  </si>
+  <si>
+    <t>Format:31/14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MM is integer from 1 to 12 </t>
+  </si>
+  <si>
+    <t>YY is iteger from 20 to 30</t>
+  </si>
+  <si>
+    <t>MM and YY can not be alphabets and special characters</t>
+  </si>
+  <si>
+    <t>Card holder (first Name+ second name)</t>
+  </si>
+  <si>
+    <t>Format:Second Name+ First Name</t>
+  </si>
+  <si>
+    <t>Format:Usama Hameed</t>
+  </si>
+  <si>
+    <t>Hameed Usama</t>
+  </si>
+  <si>
+    <t>Ha12e H#meed</t>
+  </si>
+  <si>
+    <t>MUHAMMAD USAMA HAMEED ALI KHAN KAKAD ZAI</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>0&lt;x&lt;9</t>
+  </si>
+  <si>
+    <t>01/20</t>
+  </si>
+  <si>
+    <t>02/20</t>
+  </si>
+  <si>
+    <t>12/30</t>
+  </si>
+  <si>
+    <t>01/31</t>
+  </si>
+  <si>
+    <t>12/19</t>
+  </si>
+  <si>
+    <t>11/29</t>
+  </si>
+  <si>
+    <t>999</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>-001</t>
+  </si>
+  <si>
+    <t>998</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Muhammad Usama Hameed ahmed Rehman</t>
+  </si>
+  <si>
+    <t>Greater than 30 character</t>
+  </si>
+  <si>
+    <t>As</t>
+  </si>
+  <si>
+    <t>name with 29 characters</t>
+  </si>
+  <si>
+    <t>44av</t>
+  </si>
+  <si>
+    <t>12@#</t>
+  </si>
+  <si>
+    <t>0000</t>
+  </si>
+  <si>
+    <t>Enter special character</t>
+  </si>
+  <si>
+    <t>Enter values of xxxxx</t>
+  </si>
+  <si>
+    <t>negative values</t>
+  </si>
+  <si>
+    <t>0002</t>
+  </si>
+  <si>
+    <t>0001</t>
+  </si>
+  <si>
+    <t>5432-5111-6776-9809</t>
+  </si>
+  <si>
+    <t>5432-9087-0000-98765</t>
+  </si>
+  <si>
+    <t>4321-5432-0987-655</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,8 +396,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -140,8 +432,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -254,37 +570,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -294,6 +623,8 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -301,8 +632,147 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -638,7 +1108,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A18:E98"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
+    <sheetView topLeftCell="A85" workbookViewId="0">
       <selection activeCell="F87" sqref="F87"/>
     </sheetView>
   </sheetViews>
@@ -690,63 +1160,63 @@
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B91" s="3"/>
-      <c r="C91" s="3"/>
-      <c r="D91" s="3"/>
-      <c r="E91" s="3"/>
+      <c r="B91" s="2"/>
+      <c r="C91" s="2"/>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2"/>
     </row>
     <row r="92" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B92" s="3"/>
-      <c r="C92" s="3"/>
-      <c r="D92" s="3"/>
-      <c r="E92" s="3"/>
+      <c r="B92" s="2"/>
+      <c r="C92" s="2"/>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="3" t="s">
+      <c r="A93" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B93" s="3"/>
-      <c r="C93" s="3"/>
-      <c r="D93" s="3"/>
-      <c r="E93" s="3"/>
+      <c r="B93" s="2"/>
+      <c r="C93" s="2"/>
+      <c r="D93" s="2"/>
+      <c r="E93" s="2"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="3" t="s">
+      <c r="A94" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B94" s="4"/>
-      <c r="C94" s="4"/>
-      <c r="D94" s="4"/>
-      <c r="E94" s="4"/>
+      <c r="B94" s="3"/>
+      <c r="C94" s="3"/>
+      <c r="D94" s="3"/>
+      <c r="E94" s="3"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="3" t="s">
+      <c r="A95" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B95" s="4"/>
-      <c r="C95" s="4"/>
-      <c r="D95" s="4"/>
-      <c r="E95" s="4"/>
+      <c r="B95" s="3"/>
+      <c r="C95" s="3"/>
+      <c r="D95" s="3"/>
+      <c r="E95" s="3"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="4" t="s">
+      <c r="A96" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B96" s="4"/>
-      <c r="C96" s="4"/>
-      <c r="D96" s="4"/>
-      <c r="E96" s="4"/>
+      <c r="B96" s="3"/>
+      <c r="C96" s="3"/>
+      <c r="D96" s="3"/>
+      <c r="E96" s="3"/>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" s="4" t="s">
+      <c r="A97" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" s="4" t="s">
+      <c r="A98" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -759,35 +1229,363 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB21F573-008A-472F-BCEB-9DC7975FDE7E}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="32.140625" customWidth="1"/>
+    <col min="6" max="6" width="21.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+      <c r="A1" s="9"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="44"/>
+      <c r="D3" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" s="16"/>
+      <c r="D4" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="19"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="19"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="19"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="19"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="20"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="20"/>
+      <c r="B11" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="16"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="20"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="20"/>
+      <c r="B13" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="16"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="20"/>
+      <c r="B14" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" s="16"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="47" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" s="16"/>
+      <c r="D15" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="21"/>
+      <c r="B16" s="47" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" s="16"/>
+      <c r="D16" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="21"/>
+      <c r="B17" s="47" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" s="16"/>
+      <c r="D17" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="22"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="C19" s="16"/>
+      <c r="D19" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="21"/>
+      <c r="B20" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="C20" s="16"/>
+      <c r="D20" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="21"/>
+      <c r="B21" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C21" s="16"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="22"/>
+      <c r="B22" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="C22" s="16"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="71" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="69" t="s">
+        <v>106</v>
+      </c>
+      <c r="C23" s="38"/>
+      <c r="D23" s="54">
+        <v>10000</v>
+      </c>
+      <c r="E23" s="54"/>
+      <c r="F23" s="54"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="72"/>
+      <c r="B24" s="15">
+        <v>9999</v>
+      </c>
+      <c r="C24" s="16"/>
+      <c r="D24" s="49" t="s">
+        <v>101</v>
+      </c>
+      <c r="E24" s="43"/>
+      <c r="F24" s="43"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="72"/>
+      <c r="B25" s="36">
+        <v>9998</v>
+      </c>
+      <c r="C25" s="37"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="72"/>
+      <c r="B26" s="70" t="s">
+        <v>105</v>
+      </c>
+      <c r="C26" s="37"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="72"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="58">
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="A4:A8"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:D2"/>
     <mergeCell ref="E1:F2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -797,7 +1595,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F63AFADE-CFC7-4606-B6B6-393CD990268E}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
@@ -809,403 +1607,972 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A98E7CB-3D9D-4B23-96F9-226FCCC65AE8}">
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:L75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50:F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="12.5703125" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="39.28515625" customWidth="1"/>
+    <col min="6" max="6" width="31" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="5"/>
-      <c r="B1" s="16" t="s">
+      <c r="A1" s="4"/>
+      <c r="B1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="B2" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="A3" s="19"/>
+      <c r="B3" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="16"/>
+      <c r="D3" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="A4" s="19"/>
+      <c r="B4" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="16"/>
+      <c r="D4" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="A5" s="19"/>
+      <c r="B5" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="16"/>
+      <c r="D5" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="A6" s="19"/>
+      <c r="B6" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="15"/>
+      <c r="A7" s="19"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="8"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="A8" s="19"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="A9" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="A10" s="20"/>
+      <c r="B10" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="16"/>
+      <c r="D10" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="A11" s="20"/>
+      <c r="B11" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="16"/>
+      <c r="D11" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="A12" s="20"/>
+      <c r="B12" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="16"/>
+      <c r="D12" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="A13" s="20"/>
+      <c r="B13" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="16"/>
+      <c r="D13" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="A14" s="20"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+    </row>
+    <row r="15" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="20"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="58"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D20" s="15"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D21" s="15"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D22" s="15"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D23" s="15"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D24" s="15"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D25" s="15"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D26" s="15"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D27" s="15"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D28" s="15"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D29" s="15"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D30" s="15"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D31" s="15"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D32" s="15"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-    </row>
-    <row r="33" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D33" s="15"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-    </row>
-    <row r="34" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D34" s="15"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-    </row>
-    <row r="35" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D35" s="15"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-    </row>
-    <row r="36" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D36" s="15"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-    </row>
-    <row r="37" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D37" s="15"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-    </row>
-    <row r="38" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D38" s="15"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-    </row>
-    <row r="39" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D39" s="15"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-    </row>
-    <row r="40" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D40" s="15"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-    </row>
-    <row r="41" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D41" s="15"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-    </row>
-    <row r="42" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D42" s="15"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-    </row>
-    <row r="43" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D43" s="15"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-    </row>
-    <row r="44" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D44" s="15"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-    </row>
-    <row r="45" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D45" s="15"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-    </row>
-    <row r="46" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D46" s="15"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-    </row>
-    <row r="47" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D47" s="15"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-    </row>
-    <row r="48" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D48" s="15"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-    </row>
-    <row r="49" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D49" s="15"/>
+      <c r="A16" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="16"/>
+      <c r="D16" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="21"/>
+      <c r="B17" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="16"/>
+      <c r="D17" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="21"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="21"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+    </row>
+    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="22"/>
+      <c r="B20" s="61"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="58"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="16"/>
+      <c r="D21" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="21"/>
+      <c r="B22" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="16"/>
+      <c r="D22" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="21"/>
+      <c r="B23" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="16"/>
+      <c r="D23" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="21"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="21"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+    </row>
+    <row r="26" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="22"/>
+      <c r="B26" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="16"/>
+      <c r="D26" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+    </row>
+    <row r="27" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="68"/>
+      <c r="B27" s="64"/>
+      <c r="C27" s="64"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="65"/>
+      <c r="J27" s="67"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" s="16"/>
+      <c r="D28" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="E28" s="66"/>
+      <c r="F28" s="66"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="60"/>
+      <c r="B29" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="16"/>
+      <c r="D29" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="60"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="60"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="60"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D33" s="10"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D34" s="10"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D35" s="10"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D36" s="10"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D37" s="10"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="26"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D38" s="10"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D39" s="10"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="26"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="31"/>
+      <c r="B40" s="31"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="33"/>
+      <c r="F40" s="33"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="31"/>
+      <c r="B41" s="31"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="33"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="31"/>
+      <c r="B42" s="31"/>
+      <c r="C42" s="31"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="33"/>
+      <c r="F42" s="33"/>
+    </row>
+    <row r="43" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="4"/>
+      <c r="B43" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" s="12"/>
+      <c r="D43" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C44" s="16"/>
+      <c r="D44" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="E44" s="41"/>
+      <c r="F44" s="41"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="19"/>
+      <c r="B45" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C45" s="16"/>
+      <c r="D45" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="E45" s="41"/>
+      <c r="F45" s="41"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="19"/>
+      <c r="B46" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C46" s="16"/>
+      <c r="D46" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="E46" s="41"/>
+      <c r="F46" s="41"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="19"/>
+      <c r="B47" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C47" s="16"/>
+      <c r="D47" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="E47" s="41"/>
+      <c r="F47" s="41"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="19"/>
+      <c r="B48" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C48" s="16"/>
+      <c r="D48" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="E48" s="41"/>
+      <c r="F48" s="41"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="19"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="8"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
     </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="19"/>
+      <c r="B50" s="58"/>
+      <c r="C50" s="58"/>
+      <c r="D50" s="58"/>
+      <c r="E50" s="58"/>
+      <c r="F50" s="58"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B51" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C51" s="16"/>
+      <c r="D51" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="E51" s="41"/>
+      <c r="F51" s="41"/>
+      <c r="G51" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H51" s="9"/>
+      <c r="I51" t="s">
+        <v>16</v>
+      </c>
+      <c r="J51" s="39"/>
+      <c r="K51" s="39"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="20"/>
+      <c r="B52" s="24"/>
+      <c r="C52" s="25"/>
+      <c r="D52" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="E52" s="41"/>
+      <c r="F52" s="41"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
+      <c r="I52" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="20"/>
+      <c r="B53" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C53" s="16"/>
+      <c r="D53" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="E53" s="41"/>
+      <c r="F53" s="41"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="20"/>
+      <c r="B54" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C54" s="16"/>
+      <c r="D54" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="E54" s="41"/>
+      <c r="F54" s="41"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="20"/>
+      <c r="B55" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="C55" s="16"/>
+      <c r="D55" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="E55" s="41"/>
+      <c r="F55" s="41"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="20"/>
+      <c r="B56" s="58"/>
+      <c r="C56" s="58"/>
+      <c r="D56" s="58"/>
+      <c r="E56" s="58"/>
+      <c r="F56" s="58"/>
+      <c r="J56">
+        <v>1</v>
+      </c>
+      <c r="K56">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B57" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C57" s="16"/>
+      <c r="D57" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="E57" s="43"/>
+      <c r="F57" s="43"/>
+      <c r="G57" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="H57" s="9"/>
+      <c r="I57" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>-123</v>
+      </c>
+      <c r="L57">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" s="21"/>
+      <c r="B58" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C58" s="16"/>
+      <c r="D58" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="E58" s="43"/>
+      <c r="F58" s="43"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="L58">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" s="21"/>
+      <c r="B59" s="15"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="E59" s="41"/>
+      <c r="F59" s="41"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" s="21"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="40">
+        <v>-1231234</v>
+      </c>
+      <c r="E60" s="41"/>
+      <c r="F60" s="41"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" s="22"/>
+      <c r="B61" s="61"/>
+      <c r="C61" s="51"/>
+      <c r="D61" s="62"/>
+      <c r="E61" s="63"/>
+      <c r="F61" s="63"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="B62" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C62" s="16"/>
+      <c r="D62" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="E62" s="43"/>
+      <c r="F62" s="43"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" s="21"/>
+      <c r="B63" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C63" s="16"/>
+      <c r="D63" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="E63" s="43"/>
+      <c r="F63" s="43"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" s="21"/>
+      <c r="B64" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C64" s="16"/>
+      <c r="D64" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="E64" s="43"/>
+      <c r="F64" s="43"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="21"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="6"/>
+      <c r="D65" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="E65" s="43"/>
+      <c r="F65" s="43"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="21"/>
+      <c r="B66" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C66" s="16"/>
+      <c r="D66" s="54" t="s">
+        <v>79</v>
+      </c>
+      <c r="E66" s="54"/>
+      <c r="F66" s="54"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="22"/>
+      <c r="B67" s="58"/>
+      <c r="C67" s="58"/>
+      <c r="D67" s="58"/>
+      <c r="E67" s="58"/>
+      <c r="F67" s="58"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="B68" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="C68" s="16"/>
+      <c r="D68" s="54" t="s">
+        <v>99</v>
+      </c>
+      <c r="E68" s="54"/>
+      <c r="F68" s="54"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="60"/>
+      <c r="B69" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C69" s="16"/>
+      <c r="D69" s="42">
+        <v>10334</v>
+      </c>
+      <c r="E69" s="43"/>
+      <c r="F69" s="43"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="60"/>
+      <c r="B70" s="27"/>
+      <c r="C70" s="25"/>
+      <c r="D70" s="57" t="s">
+        <v>100</v>
+      </c>
+      <c r="E70" s="56"/>
+      <c r="F70" s="56"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="60"/>
+      <c r="B71" s="27"/>
+      <c r="C71" s="25"/>
+      <c r="D71" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="E71" s="56"/>
+      <c r="F71" s="56"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="60"/>
+      <c r="B72" s="28"/>
+      <c r="C72" s="29"/>
+      <c r="D72" s="42">
+        <v>-12345</v>
+      </c>
+      <c r="E72" s="43"/>
+      <c r="F72" s="43"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D73" s="10"/>
+      <c r="E73" s="26"/>
+      <c r="F73" s="26"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D74" s="10"/>
+      <c r="E74" s="26"/>
+      <c r="F74" s="26"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D75" s="10"/>
+      <c r="E75" s="26"/>
+      <c r="F75" s="26"/>
+    </row>
   </sheetData>
-  <mergeCells count="72">
-    <mergeCell ref="D46:F46"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="B1:C1"/>
+  <mergeCells count="131">
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="D73:F73"/>
+    <mergeCell ref="D74:F74"/>
+    <mergeCell ref="D75:F75"/>
+    <mergeCell ref="G57:H58"/>
+    <mergeCell ref="G51:H52"/>
+    <mergeCell ref="D68:F68"/>
+    <mergeCell ref="D60:F60"/>
+    <mergeCell ref="D65:F65"/>
+    <mergeCell ref="A68:A72"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="D66:F66"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="D69:F69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="D70:F70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="D71:F71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="D72:F72"/>
+    <mergeCell ref="A62:A67"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="A51:A56"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="A44:A50"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="A9:A15"/>
+    <mergeCell ref="A16:A20"/>
+    <mergeCell ref="A21:A26"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="D52:F52"/>
+    <mergeCell ref="D39:F39"/>
     <mergeCell ref="D40:F40"/>
     <mergeCell ref="D41:F41"/>
     <mergeCell ref="D42:F42"/>
     <mergeCell ref="D43:F43"/>
     <mergeCell ref="D44:F44"/>
+    <mergeCell ref="D61:F61"/>
+    <mergeCell ref="D62:F62"/>
+    <mergeCell ref="D63:F63"/>
+    <mergeCell ref="D64:F64"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D53:F53"/>
+    <mergeCell ref="D54:F54"/>
+    <mergeCell ref="D55:F55"/>
+    <mergeCell ref="D57:F57"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="D59:F59"/>
     <mergeCell ref="D45:F45"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="D51:F51"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="D70" r:id="rId1" xr:uid="{04BFE1C5-C757-4A1C-BC23-15797BE6E1A0}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId2"/>
 </worksheet>
 </file>